--- a/YUM.xlsx
+++ b/YUM.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F240FBF7-8E54-5D43-88F1-011F2F196DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B65D70-0741-7D4E-B8C9-34977772A989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="1200" windowWidth="31740" windowHeight="24620" xr2:uid="{C41622BE-9F07-764D-83F6-9802A34A6FF5}"/>
+    <workbookView xWindow="27500" yWindow="500" windowWidth="23680" windowHeight="28300" xr2:uid="{C41622BE-9F07-764D-83F6-9802A34A6FF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>Price</t>
   </si>
@@ -293,18 +295,28 @@
   </si>
   <si>
     <t>Release</t>
+  </si>
+  <si>
+    <t>$M</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcript </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0&quot;M&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -337,6 +349,26 @@
       <name val="ArialMT"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -367,14 +399,12 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -386,8 +416,14 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -516,9 +552,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -556,7 +592,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -662,7 +698,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -804,7 +840,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -814,110 +850,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13D87F5-6A72-034C-B2C6-F1A9655F11FB}">
   <dimension ref="B2:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.83203125" style="5"/>
-    <col min="7" max="7" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="2.83203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.83203125" style="13"/>
+    <col min="7" max="7" width="6.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="13" t="s">
         <v>82</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="6">
-        <v>141.66</v>
+      <c r="H3" s="15">
+        <v>137.65</v>
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="15">
         <v>281.63221199999998</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="15">
         <f>+H3*H4</f>
-        <v>39896.019151919994</v>
+        <v>38766.673981799999</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="16">
         <v>652</v>
       </c>
-      <c r="I6" s="5" t="str">
+      <c r="I6" s="13" t="str">
         <f>+I4</f>
         <v>Q124</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="15">
         <f>58+11130</f>
         <v>11188</v>
       </c>
-      <c r="I7" s="5" t="str">
+      <c r="I7" s="13" t="str">
         <f>+I6</f>
         <v>Q124</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="15">
         <f>+H5-H6+H7</f>
-        <v>50432.019151919994</v>
+        <v>49302.673981799999</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="13" t="s">
         <v>85</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="G12" s="1"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="G13" s="3"/>
+      <c r="G13" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{D6AB8F98-98FE-534F-A1EA-04E159DDBFA3}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{1FCDFCEC-4FA4-7542-B14D-FA724A1322A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -928,10 +974,10 @@
   <dimension ref="B2:II73"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI35" sqref="AI35"/>
+      <selection pane="bottomRight" activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -960,959 +1006,959 @@
     <col min="111" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:243" s="9" customFormat="1">
-      <c r="C2" s="9">
+    <row r="2" spans="2:243" s="7" customFormat="1">
+      <c r="C2" s="7">
         <v>43921</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>44012</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>44104</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="7">
         <v>44286</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="7">
         <v>44377</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="7">
         <v>44469</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="7">
         <v>44651</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="7">
         <v>44742</v>
       </c>
     </row>
-    <row r="3" spans="2:243" s="10" customFormat="1">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="2:243" s="8" customFormat="1">
+      <c r="B3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="9">
         <v>2015</v>
       </c>
-      <c r="Z3" s="11">
+      <c r="Z3" s="9">
         <f>+Y3+1</f>
         <v>2016</v>
       </c>
-      <c r="AA3" s="11">
+      <c r="AA3" s="9">
         <f t="shared" ref="AA3:AI3" si="0">+Z3+1</f>
         <v>2017</v>
       </c>
-      <c r="AB3" s="11">
+      <c r="AB3" s="9">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="AC3" s="11">
+      <c r="AC3" s="9">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="AD3" s="11">
+      <c r="AD3" s="9">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="AE3" s="11">
+      <c r="AE3" s="9">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AF3" s="11">
+      <c r="AF3" s="9">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AG3" s="11">
+      <c r="AG3" s="9">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AH3" s="11">
+      <c r="AH3" s="9">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AI3" s="11">
+      <c r="AI3" s="9">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AJ3" s="11">
+      <c r="AJ3" s="9">
         <f>+AI3+1</f>
         <v>2026</v>
       </c>
-      <c r="AK3" s="11">
+      <c r="AK3" s="9">
         <f t="shared" ref="AK3:AQ3" si="1">+AJ3+1</f>
         <v>2027</v>
       </c>
-      <c r="AL3" s="11">
+      <c r="AL3" s="9">
         <f t="shared" si="1"/>
         <v>2028</v>
       </c>
-      <c r="AM3" s="11">
+      <c r="AM3" s="9">
         <f t="shared" si="1"/>
         <v>2029</v>
       </c>
-      <c r="AN3" s="11">
+      <c r="AN3" s="9">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="AO3" s="11">
+      <c r="AO3" s="9">
         <f t="shared" si="1"/>
         <v>2031</v>
       </c>
-      <c r="AP3" s="11">
+      <c r="AP3" s="9">
         <f t="shared" si="1"/>
         <v>2032</v>
       </c>
-      <c r="AQ3" s="11">
+      <c r="AQ3" s="9">
         <f t="shared" si="1"/>
         <v>2033</v>
       </c>
-      <c r="AR3" s="10">
+      <c r="AR3" s="8">
         <f>+AQ3+1</f>
         <v>2034</v>
       </c>
-      <c r="AS3" s="10">
+      <c r="AS3" s="8">
         <f t="shared" ref="AS3:DD3" si="2">+AR3+1</f>
         <v>2035</v>
       </c>
-      <c r="AT3" s="10">
+      <c r="AT3" s="8">
         <f t="shared" si="2"/>
         <v>2036</v>
       </c>
-      <c r="AU3" s="10">
+      <c r="AU3" s="8">
         <f t="shared" si="2"/>
         <v>2037</v>
       </c>
-      <c r="AV3" s="10">
+      <c r="AV3" s="8">
         <f t="shared" si="2"/>
         <v>2038</v>
       </c>
-      <c r="AW3" s="10">
+      <c r="AW3" s="8">
         <f t="shared" si="2"/>
         <v>2039</v>
       </c>
-      <c r="AX3" s="10">
+      <c r="AX3" s="8">
         <f t="shared" si="2"/>
         <v>2040</v>
       </c>
-      <c r="AY3" s="10">
+      <c r="AY3" s="8">
         <f t="shared" si="2"/>
         <v>2041</v>
       </c>
-      <c r="AZ3" s="10">
+      <c r="AZ3" s="8">
         <f t="shared" si="2"/>
         <v>2042</v>
       </c>
-      <c r="BA3" s="10">
+      <c r="BA3" s="8">
         <f t="shared" si="2"/>
         <v>2043</v>
       </c>
-      <c r="BB3" s="10">
+      <c r="BB3" s="8">
         <f t="shared" si="2"/>
         <v>2044</v>
       </c>
-      <c r="BC3" s="10">
+      <c r="BC3" s="8">
         <f t="shared" si="2"/>
         <v>2045</v>
       </c>
-      <c r="BD3" s="10">
+      <c r="BD3" s="8">
         <f t="shared" si="2"/>
         <v>2046</v>
       </c>
-      <c r="BE3" s="10">
+      <c r="BE3" s="8">
         <f t="shared" si="2"/>
         <v>2047</v>
       </c>
-      <c r="BF3" s="10">
+      <c r="BF3" s="8">
         <f t="shared" si="2"/>
         <v>2048</v>
       </c>
-      <c r="BG3" s="10">
+      <c r="BG3" s="8">
         <f t="shared" si="2"/>
         <v>2049</v>
       </c>
-      <c r="BH3" s="10">
+      <c r="BH3" s="8">
         <f t="shared" si="2"/>
         <v>2050</v>
       </c>
-      <c r="BI3" s="10">
+      <c r="BI3" s="8">
         <f t="shared" si="2"/>
         <v>2051</v>
       </c>
-      <c r="BJ3" s="10">
+      <c r="BJ3" s="8">
         <f t="shared" si="2"/>
         <v>2052</v>
       </c>
-      <c r="BK3" s="10">
+      <c r="BK3" s="8">
         <f t="shared" si="2"/>
         <v>2053</v>
       </c>
-      <c r="BL3" s="10">
+      <c r="BL3" s="8">
         <f t="shared" si="2"/>
         <v>2054</v>
       </c>
-      <c r="BM3" s="10">
+      <c r="BM3" s="8">
         <f t="shared" si="2"/>
         <v>2055</v>
       </c>
-      <c r="BN3" s="10">
+      <c r="BN3" s="8">
         <f t="shared" si="2"/>
         <v>2056</v>
       </c>
-      <c r="BO3" s="10">
+      <c r="BO3" s="8">
         <f t="shared" si="2"/>
         <v>2057</v>
       </c>
-      <c r="BP3" s="10">
+      <c r="BP3" s="8">
         <f t="shared" si="2"/>
         <v>2058</v>
       </c>
-      <c r="BQ3" s="10">
+      <c r="BQ3" s="8">
         <f t="shared" si="2"/>
         <v>2059</v>
       </c>
-      <c r="BR3" s="10">
+      <c r="BR3" s="8">
         <f t="shared" si="2"/>
         <v>2060</v>
       </c>
-      <c r="BS3" s="10">
+      <c r="BS3" s="8">
         <f t="shared" si="2"/>
         <v>2061</v>
       </c>
-      <c r="BT3" s="10">
+      <c r="BT3" s="8">
         <f t="shared" si="2"/>
         <v>2062</v>
       </c>
-      <c r="BU3" s="10">
+      <c r="BU3" s="8">
         <f t="shared" si="2"/>
         <v>2063</v>
       </c>
-      <c r="BV3" s="10">
+      <c r="BV3" s="8">
         <f t="shared" si="2"/>
         <v>2064</v>
       </c>
-      <c r="BW3" s="10">
+      <c r="BW3" s="8">
         <f t="shared" si="2"/>
         <v>2065</v>
       </c>
-      <c r="BX3" s="10">
+      <c r="BX3" s="8">
         <f t="shared" si="2"/>
         <v>2066</v>
       </c>
-      <c r="BY3" s="10">
+      <c r="BY3" s="8">
         <f t="shared" si="2"/>
         <v>2067</v>
       </c>
-      <c r="BZ3" s="10">
+      <c r="BZ3" s="8">
         <f t="shared" si="2"/>
         <v>2068</v>
       </c>
-      <c r="CA3" s="10">
+      <c r="CA3" s="8">
         <f t="shared" si="2"/>
         <v>2069</v>
       </c>
-      <c r="CB3" s="10">
+      <c r="CB3" s="8">
         <f t="shared" si="2"/>
         <v>2070</v>
       </c>
-      <c r="CC3" s="10">
+      <c r="CC3" s="8">
         <f t="shared" si="2"/>
         <v>2071</v>
       </c>
-      <c r="CD3" s="10">
+      <c r="CD3" s="8">
         <f t="shared" si="2"/>
         <v>2072</v>
       </c>
-      <c r="CE3" s="10">
+      <c r="CE3" s="8">
         <f t="shared" si="2"/>
         <v>2073</v>
       </c>
-      <c r="CF3" s="10">
+      <c r="CF3" s="8">
         <f t="shared" si="2"/>
         <v>2074</v>
       </c>
-      <c r="CG3" s="10">
+      <c r="CG3" s="8">
         <f t="shared" si="2"/>
         <v>2075</v>
       </c>
-      <c r="CH3" s="10">
+      <c r="CH3" s="8">
         <f t="shared" si="2"/>
         <v>2076</v>
       </c>
-      <c r="CI3" s="10">
+      <c r="CI3" s="8">
         <f t="shared" si="2"/>
         <v>2077</v>
       </c>
-      <c r="CJ3" s="10">
+      <c r="CJ3" s="8">
         <f t="shared" si="2"/>
         <v>2078</v>
       </c>
-      <c r="CK3" s="10">
+      <c r="CK3" s="8">
         <f t="shared" si="2"/>
         <v>2079</v>
       </c>
-      <c r="CL3" s="10">
+      <c r="CL3" s="8">
         <f t="shared" si="2"/>
         <v>2080</v>
       </c>
-      <c r="CM3" s="10">
+      <c r="CM3" s="8">
         <f t="shared" si="2"/>
         <v>2081</v>
       </c>
-      <c r="CN3" s="10">
+      <c r="CN3" s="8">
         <f t="shared" si="2"/>
         <v>2082</v>
       </c>
-      <c r="CO3" s="10">
+      <c r="CO3" s="8">
         <f t="shared" si="2"/>
         <v>2083</v>
       </c>
-      <c r="CP3" s="10">
+      <c r="CP3" s="8">
         <f t="shared" si="2"/>
         <v>2084</v>
       </c>
-      <c r="CQ3" s="10">
+      <c r="CQ3" s="8">
         <f t="shared" si="2"/>
         <v>2085</v>
       </c>
-      <c r="CR3" s="10">
+      <c r="CR3" s="8">
         <f t="shared" si="2"/>
         <v>2086</v>
       </c>
-      <c r="CS3" s="10">
+      <c r="CS3" s="8">
         <f t="shared" si="2"/>
         <v>2087</v>
       </c>
-      <c r="CT3" s="10">
+      <c r="CT3" s="8">
         <f t="shared" si="2"/>
         <v>2088</v>
       </c>
-      <c r="CU3" s="10">
+      <c r="CU3" s="8">
         <f t="shared" si="2"/>
         <v>2089</v>
       </c>
-      <c r="CV3" s="10">
+      <c r="CV3" s="8">
         <f t="shared" si="2"/>
         <v>2090</v>
       </c>
-      <c r="CW3" s="10">
+      <c r="CW3" s="8">
         <f t="shared" si="2"/>
         <v>2091</v>
       </c>
-      <c r="CX3" s="10">
+      <c r="CX3" s="8">
         <f t="shared" si="2"/>
         <v>2092</v>
       </c>
-      <c r="CY3" s="10">
+      <c r="CY3" s="8">
         <f t="shared" si="2"/>
         <v>2093</v>
       </c>
-      <c r="CZ3" s="10">
+      <c r="CZ3" s="8">
         <f t="shared" si="2"/>
         <v>2094</v>
       </c>
-      <c r="DA3" s="10">
+      <c r="DA3" s="8">
         <f t="shared" si="2"/>
         <v>2095</v>
       </c>
-      <c r="DB3" s="10">
+      <c r="DB3" s="8">
         <f t="shared" si="2"/>
         <v>2096</v>
       </c>
-      <c r="DC3" s="10">
+      <c r="DC3" s="8">
         <f t="shared" si="2"/>
         <v>2097</v>
       </c>
-      <c r="DD3" s="10">
+      <c r="DD3" s="8">
         <f t="shared" si="2"/>
         <v>2098</v>
       </c>
-      <c r="DE3" s="10">
+      <c r="DE3" s="8">
         <f t="shared" ref="DE3:DF3" si="3">+DD3+1</f>
         <v>2099</v>
       </c>
-      <c r="DF3" s="10">
+      <c r="DF3" s="8">
         <f t="shared" si="3"/>
         <v>2100</v>
       </c>
-      <c r="DG3" s="10">
+      <c r="DG3" s="8">
         <f t="shared" ref="DG3:ER3" si="4">+DF3+1</f>
         <v>2101</v>
       </c>
-      <c r="DH3" s="10">
+      <c r="DH3" s="8">
         <f t="shared" si="4"/>
         <v>2102</v>
       </c>
-      <c r="DI3" s="10">
+      <c r="DI3" s="8">
         <f t="shared" si="4"/>
         <v>2103</v>
       </c>
-      <c r="DJ3" s="10">
+      <c r="DJ3" s="8">
         <f t="shared" si="4"/>
         <v>2104</v>
       </c>
-      <c r="DK3" s="10">
+      <c r="DK3" s="8">
         <f t="shared" si="4"/>
         <v>2105</v>
       </c>
-      <c r="DL3" s="10">
+      <c r="DL3" s="8">
         <f t="shared" si="4"/>
         <v>2106</v>
       </c>
-      <c r="DM3" s="10">
+      <c r="DM3" s="8">
         <f t="shared" si="4"/>
         <v>2107</v>
       </c>
-      <c r="DN3" s="10">
+      <c r="DN3" s="8">
         <f t="shared" si="4"/>
         <v>2108</v>
       </c>
-      <c r="DO3" s="10">
+      <c r="DO3" s="8">
         <f t="shared" si="4"/>
         <v>2109</v>
       </c>
-      <c r="DP3" s="10">
+      <c r="DP3" s="8">
         <f t="shared" si="4"/>
         <v>2110</v>
       </c>
-      <c r="DQ3" s="10">
+      <c r="DQ3" s="8">
         <f t="shared" si="4"/>
         <v>2111</v>
       </c>
-      <c r="DR3" s="10">
+      <c r="DR3" s="8">
         <f t="shared" si="4"/>
         <v>2112</v>
       </c>
-      <c r="DS3" s="10">
+      <c r="DS3" s="8">
         <f t="shared" si="4"/>
         <v>2113</v>
       </c>
-      <c r="DT3" s="10">
+      <c r="DT3" s="8">
         <f t="shared" si="4"/>
         <v>2114</v>
       </c>
-      <c r="DU3" s="10">
+      <c r="DU3" s="8">
         <f t="shared" si="4"/>
         <v>2115</v>
       </c>
-      <c r="DV3" s="10">
+      <c r="DV3" s="8">
         <f t="shared" si="4"/>
         <v>2116</v>
       </c>
-      <c r="DW3" s="10">
+      <c r="DW3" s="8">
         <f t="shared" si="4"/>
         <v>2117</v>
       </c>
-      <c r="DX3" s="10">
+      <c r="DX3" s="8">
         <f t="shared" si="4"/>
         <v>2118</v>
       </c>
-      <c r="DY3" s="10">
+      <c r="DY3" s="8">
         <f t="shared" si="4"/>
         <v>2119</v>
       </c>
-      <c r="DZ3" s="10">
+      <c r="DZ3" s="8">
         <f t="shared" si="4"/>
         <v>2120</v>
       </c>
-      <c r="EA3" s="10">
+      <c r="EA3" s="8">
         <f t="shared" si="4"/>
         <v>2121</v>
       </c>
-      <c r="EB3" s="10">
+      <c r="EB3" s="8">
         <f t="shared" si="4"/>
         <v>2122</v>
       </c>
-      <c r="EC3" s="10">
+      <c r="EC3" s="8">
         <f t="shared" si="4"/>
         <v>2123</v>
       </c>
-      <c r="ED3" s="10">
+      <c r="ED3" s="8">
         <f t="shared" si="4"/>
         <v>2124</v>
       </c>
-      <c r="EE3" s="10">
+      <c r="EE3" s="8">
         <f t="shared" si="4"/>
         <v>2125</v>
       </c>
-      <c r="EF3" s="10">
+      <c r="EF3" s="8">
         <f t="shared" si="4"/>
         <v>2126</v>
       </c>
-      <c r="EG3" s="10">
+      <c r="EG3" s="8">
         <f t="shared" si="4"/>
         <v>2127</v>
       </c>
-      <c r="EH3" s="10">
+      <c r="EH3" s="8">
         <f t="shared" si="4"/>
         <v>2128</v>
       </c>
-      <c r="EI3" s="10">
+      <c r="EI3" s="8">
         <f t="shared" si="4"/>
         <v>2129</v>
       </c>
-      <c r="EJ3" s="10">
+      <c r="EJ3" s="8">
         <f t="shared" si="4"/>
         <v>2130</v>
       </c>
-      <c r="EK3" s="10">
+      <c r="EK3" s="8">
         <f t="shared" si="4"/>
         <v>2131</v>
       </c>
-      <c r="EL3" s="10">
+      <c r="EL3" s="8">
         <f t="shared" si="4"/>
         <v>2132</v>
       </c>
-      <c r="EM3" s="10">
+      <c r="EM3" s="8">
         <f t="shared" si="4"/>
         <v>2133</v>
       </c>
-      <c r="EN3" s="10">
+      <c r="EN3" s="8">
         <f t="shared" si="4"/>
         <v>2134</v>
       </c>
-      <c r="EO3" s="10">
+      <c r="EO3" s="8">
         <f t="shared" si="4"/>
         <v>2135</v>
       </c>
-      <c r="EP3" s="10">
+      <c r="EP3" s="8">
         <f t="shared" si="4"/>
         <v>2136</v>
       </c>
-      <c r="EQ3" s="10">
+      <c r="EQ3" s="8">
         <f t="shared" si="4"/>
         <v>2137</v>
       </c>
-      <c r="ER3" s="10">
+      <c r="ER3" s="8">
         <f t="shared" si="4"/>
         <v>2138</v>
       </c>
-      <c r="ES3" s="10">
+      <c r="ES3" s="8">
         <f t="shared" ref="ES3:FI3" si="5">+ER3+1</f>
         <v>2139</v>
       </c>
-      <c r="ET3" s="10">
+      <c r="ET3" s="8">
         <f t="shared" si="5"/>
         <v>2140</v>
       </c>
-      <c r="EU3" s="10">
+      <c r="EU3" s="8">
         <f t="shared" si="5"/>
         <v>2141</v>
       </c>
-      <c r="EV3" s="10">
+      <c r="EV3" s="8">
         <f t="shared" si="5"/>
         <v>2142</v>
       </c>
-      <c r="EW3" s="10">
+      <c r="EW3" s="8">
         <f t="shared" si="5"/>
         <v>2143</v>
       </c>
-      <c r="EX3" s="10">
+      <c r="EX3" s="8">
         <f t="shared" si="5"/>
         <v>2144</v>
       </c>
-      <c r="EY3" s="10">
+      <c r="EY3" s="8">
         <f t="shared" si="5"/>
         <v>2145</v>
       </c>
-      <c r="EZ3" s="10">
+      <c r="EZ3" s="8">
         <f t="shared" si="5"/>
         <v>2146</v>
       </c>
-      <c r="FA3" s="10">
+      <c r="FA3" s="8">
         <f t="shared" si="5"/>
         <v>2147</v>
       </c>
-      <c r="FB3" s="10">
+      <c r="FB3" s="8">
         <f t="shared" si="5"/>
         <v>2148</v>
       </c>
-      <c r="FC3" s="10">
+      <c r="FC3" s="8">
         <f t="shared" si="5"/>
         <v>2149</v>
       </c>
-      <c r="FD3" s="10">
+      <c r="FD3" s="8">
         <f t="shared" si="5"/>
         <v>2150</v>
       </c>
-      <c r="FE3" s="10">
+      <c r="FE3" s="8">
         <f t="shared" si="5"/>
         <v>2151</v>
       </c>
-      <c r="FF3" s="10">
+      <c r="FF3" s="8">
         <f t="shared" si="5"/>
         <v>2152</v>
       </c>
-      <c r="FG3" s="10">
+      <c r="FG3" s="8">
         <f t="shared" si="5"/>
         <v>2153</v>
       </c>
-      <c r="FH3" s="10">
+      <c r="FH3" s="8">
         <f t="shared" si="5"/>
         <v>2154</v>
       </c>
-      <c r="FI3" s="10">
+      <c r="FI3" s="8">
         <f t="shared" si="5"/>
         <v>2155</v>
       </c>
-      <c r="FJ3" s="10">
+      <c r="FJ3" s="8">
         <f t="shared" ref="FJ3:GQ3" si="6">+FI3+1</f>
         <v>2156</v>
       </c>
-      <c r="FK3" s="10">
+      <c r="FK3" s="8">
         <f t="shared" si="6"/>
         <v>2157</v>
       </c>
-      <c r="FL3" s="10">
+      <c r="FL3" s="8">
         <f t="shared" si="6"/>
         <v>2158</v>
       </c>
-      <c r="FM3" s="10">
+      <c r="FM3" s="8">
         <f t="shared" si="6"/>
         <v>2159</v>
       </c>
-      <c r="FN3" s="10">
+      <c r="FN3" s="8">
         <f t="shared" si="6"/>
         <v>2160</v>
       </c>
-      <c r="FO3" s="10">
+      <c r="FO3" s="8">
         <f t="shared" si="6"/>
         <v>2161</v>
       </c>
-      <c r="FP3" s="10">
+      <c r="FP3" s="8">
         <f t="shared" si="6"/>
         <v>2162</v>
       </c>
-      <c r="FQ3" s="10">
+      <c r="FQ3" s="8">
         <f t="shared" si="6"/>
         <v>2163</v>
       </c>
-      <c r="FR3" s="10">
+      <c r="FR3" s="8">
         <f t="shared" si="6"/>
         <v>2164</v>
       </c>
-      <c r="FS3" s="10">
+      <c r="FS3" s="8">
         <f t="shared" si="6"/>
         <v>2165</v>
       </c>
-      <c r="FT3" s="10">
+      <c r="FT3" s="8">
         <f t="shared" si="6"/>
         <v>2166</v>
       </c>
-      <c r="FU3" s="10">
+      <c r="FU3" s="8">
         <f t="shared" si="6"/>
         <v>2167</v>
       </c>
-      <c r="FV3" s="10">
+      <c r="FV3" s="8">
         <f t="shared" si="6"/>
         <v>2168</v>
       </c>
-      <c r="FW3" s="10">
+      <c r="FW3" s="8">
         <f t="shared" si="6"/>
         <v>2169</v>
       </c>
-      <c r="FX3" s="10">
+      <c r="FX3" s="8">
         <f t="shared" si="6"/>
         <v>2170</v>
       </c>
-      <c r="FY3" s="10">
+      <c r="FY3" s="8">
         <f t="shared" si="6"/>
         <v>2171</v>
       </c>
-      <c r="FZ3" s="10">
+      <c r="FZ3" s="8">
         <f t="shared" si="6"/>
         <v>2172</v>
       </c>
-      <c r="GA3" s="10">
+      <c r="GA3" s="8">
         <f t="shared" si="6"/>
         <v>2173</v>
       </c>
-      <c r="GB3" s="10">
+      <c r="GB3" s="8">
         <f t="shared" si="6"/>
         <v>2174</v>
       </c>
-      <c r="GC3" s="10">
+      <c r="GC3" s="8">
         <f t="shared" si="6"/>
         <v>2175</v>
       </c>
-      <c r="GD3" s="10">
+      <c r="GD3" s="8">
         <f t="shared" si="6"/>
         <v>2176</v>
       </c>
-      <c r="GE3" s="10">
+      <c r="GE3" s="8">
         <f t="shared" si="6"/>
         <v>2177</v>
       </c>
-      <c r="GF3" s="10">
+      <c r="GF3" s="8">
         <f t="shared" si="6"/>
         <v>2178</v>
       </c>
-      <c r="GG3" s="10">
+      <c r="GG3" s="8">
         <f t="shared" si="6"/>
         <v>2179</v>
       </c>
-      <c r="GH3" s="10">
+      <c r="GH3" s="8">
         <f t="shared" si="6"/>
         <v>2180</v>
       </c>
-      <c r="GI3" s="10">
+      <c r="GI3" s="8">
         <f t="shared" si="6"/>
         <v>2181</v>
       </c>
-      <c r="GJ3" s="10">
+      <c r="GJ3" s="8">
         <f t="shared" si="6"/>
         <v>2182</v>
       </c>
-      <c r="GK3" s="10">
+      <c r="GK3" s="8">
         <f t="shared" si="6"/>
         <v>2183</v>
       </c>
-      <c r="GL3" s="10">
+      <c r="GL3" s="8">
         <f t="shared" si="6"/>
         <v>2184</v>
       </c>
-      <c r="GM3" s="10">
+      <c r="GM3" s="8">
         <f t="shared" si="6"/>
         <v>2185</v>
       </c>
-      <c r="GN3" s="10">
+      <c r="GN3" s="8">
         <f t="shared" si="6"/>
         <v>2186</v>
       </c>
-      <c r="GO3" s="10">
+      <c r="GO3" s="8">
         <f t="shared" si="6"/>
         <v>2187</v>
       </c>
-      <c r="GP3" s="10">
+      <c r="GP3" s="8">
         <f t="shared" si="6"/>
         <v>2188</v>
       </c>
-      <c r="GQ3" s="10">
+      <c r="GQ3" s="8">
         <f t="shared" si="6"/>
         <v>2189</v>
       </c>
-      <c r="GR3" s="10">
+      <c r="GR3" s="8">
         <f t="shared" ref="GR3:HX3" si="7">+GQ3+1</f>
         <v>2190</v>
       </c>
-      <c r="GS3" s="10">
+      <c r="GS3" s="8">
         <f t="shared" si="7"/>
         <v>2191</v>
       </c>
-      <c r="GT3" s="10">
+      <c r="GT3" s="8">
         <f t="shared" si="7"/>
         <v>2192</v>
       </c>
-      <c r="GU3" s="10">
+      <c r="GU3" s="8">
         <f t="shared" si="7"/>
         <v>2193</v>
       </c>
-      <c r="GV3" s="10">
+      <c r="GV3" s="8">
         <f t="shared" si="7"/>
         <v>2194</v>
       </c>
-      <c r="GW3" s="10">
+      <c r="GW3" s="8">
         <f t="shared" si="7"/>
         <v>2195</v>
       </c>
-      <c r="GX3" s="10">
+      <c r="GX3" s="8">
         <f t="shared" si="7"/>
         <v>2196</v>
       </c>
-      <c r="GY3" s="10">
+      <c r="GY3" s="8">
         <f t="shared" si="7"/>
         <v>2197</v>
       </c>
-      <c r="GZ3" s="10">
+      <c r="GZ3" s="8">
         <f t="shared" si="7"/>
         <v>2198</v>
       </c>
-      <c r="HA3" s="10">
+      <c r="HA3" s="8">
         <f t="shared" si="7"/>
         <v>2199</v>
       </c>
-      <c r="HB3" s="10">
+      <c r="HB3" s="8">
         <f t="shared" si="7"/>
         <v>2200</v>
       </c>
-      <c r="HC3" s="10">
+      <c r="HC3" s="8">
         <f t="shared" si="7"/>
         <v>2201</v>
       </c>
-      <c r="HD3" s="10">
+      <c r="HD3" s="8">
         <f t="shared" si="7"/>
         <v>2202</v>
       </c>
-      <c r="HE3" s="10">
+      <c r="HE3" s="8">
         <f t="shared" si="7"/>
         <v>2203</v>
       </c>
-      <c r="HF3" s="10">
+      <c r="HF3" s="8">
         <f t="shared" si="7"/>
         <v>2204</v>
       </c>
-      <c r="HG3" s="10">
+      <c r="HG3" s="8">
         <f t="shared" si="7"/>
         <v>2205</v>
       </c>
-      <c r="HH3" s="10">
+      <c r="HH3" s="8">
         <f t="shared" si="7"/>
         <v>2206</v>
       </c>
-      <c r="HI3" s="10">
+      <c r="HI3" s="8">
         <f t="shared" si="7"/>
         <v>2207</v>
       </c>
-      <c r="HJ3" s="10">
+      <c r="HJ3" s="8">
         <f t="shared" si="7"/>
         <v>2208</v>
       </c>
-      <c r="HK3" s="10">
+      <c r="HK3" s="8">
         <f t="shared" si="7"/>
         <v>2209</v>
       </c>
-      <c r="HL3" s="10">
+      <c r="HL3" s="8">
         <f t="shared" si="7"/>
         <v>2210</v>
       </c>
-      <c r="HM3" s="10">
+      <c r="HM3" s="8">
         <f t="shared" si="7"/>
         <v>2211</v>
       </c>
-      <c r="HN3" s="10">
+      <c r="HN3" s="8">
         <f t="shared" si="7"/>
         <v>2212</v>
       </c>
-      <c r="HO3" s="10">
+      <c r="HO3" s="8">
         <f t="shared" si="7"/>
         <v>2213</v>
       </c>
-      <c r="HP3" s="10">
+      <c r="HP3" s="8">
         <f t="shared" si="7"/>
         <v>2214</v>
       </c>
-      <c r="HQ3" s="10">
+      <c r="HQ3" s="8">
         <f t="shared" si="7"/>
         <v>2215</v>
       </c>
-      <c r="HR3" s="10">
+      <c r="HR3" s="8">
         <f t="shared" si="7"/>
         <v>2216</v>
       </c>
-      <c r="HS3" s="10">
+      <c r="HS3" s="8">
         <f t="shared" si="7"/>
         <v>2217</v>
       </c>
-      <c r="HT3" s="10">
+      <c r="HT3" s="8">
         <f t="shared" si="7"/>
         <v>2218</v>
       </c>
-      <c r="HU3" s="10">
+      <c r="HU3" s="8">
         <f t="shared" si="7"/>
         <v>2219</v>
       </c>
-      <c r="HV3" s="10">
+      <c r="HV3" s="8">
         <f t="shared" si="7"/>
         <v>2220</v>
       </c>
-      <c r="HW3" s="10">
+      <c r="HW3" s="8">
         <f t="shared" si="7"/>
         <v>2221</v>
       </c>
-      <c r="HX3" s="10">
+      <c r="HX3" s="8">
         <f t="shared" si="7"/>
         <v>2222</v>
       </c>
-      <c r="HY3" s="10">
+      <c r="HY3" s="8">
         <f t="shared" ref="HY3:IH3" si="8">+HX3+1</f>
         <v>2223</v>
       </c>
-      <c r="HZ3" s="10">
+      <c r="HZ3" s="8">
         <f t="shared" si="8"/>
         <v>2224</v>
       </c>
-      <c r="IA3" s="10">
+      <c r="IA3" s="8">
         <f t="shared" si="8"/>
         <v>2225</v>
       </c>
-      <c r="IB3" s="10">
+      <c r="IB3" s="8">
         <f t="shared" si="8"/>
         <v>2226</v>
       </c>
-      <c r="IC3" s="10">
+      <c r="IC3" s="8">
         <f t="shared" si="8"/>
         <v>2227</v>
       </c>
-      <c r="ID3" s="10">
+      <c r="ID3" s="8">
         <f t="shared" si="8"/>
         <v>2228</v>
       </c>
-      <c r="IE3" s="10">
+      <c r="IE3" s="8">
         <f t="shared" si="8"/>
         <v>2229</v>
       </c>
-      <c r="IF3" s="10">
+      <c r="IF3" s="8">
         <f t="shared" si="8"/>
         <v>2230</v>
       </c>
-      <c r="IG3" s="10">
+      <c r="IG3" s="8">
         <f t="shared" si="8"/>
         <v>2231</v>
       </c>
-      <c r="IH3" s="10">
+      <c r="IH3" s="8">
         <f t="shared" si="8"/>
         <v>2232</v>
       </c>
-      <c r="II3" s="10">
+      <c r="II3" s="8">
         <f t="shared" ref="II3" si="9">+IH3+1</f>
         <v>2233</v>
       </c>
@@ -2513,26 +2559,19 @@
         <v>171.07581408386159</v>
       </c>
     </row>
-    <row r="11" spans="2:243">
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" s="2"/>
-      <c r="AL11" s="2"/>
-      <c r="AM11" s="2"/>
-      <c r="AN11" s="2"/>
-      <c r="AO11" s="2"/>
-      <c r="AP11" s="2"/>
-      <c r="AQ11" s="2"/>
+    <row r="11" spans="2:243" s="11" customFormat="1">
+      <c r="B11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="S11" s="11">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="12" spans="2:243">
       <c r="B12" s="1" t="s">
@@ -2916,7 +2955,7 @@
         <v>8725.6222311540023</v>
       </c>
       <c r="AK15" s="3">
-        <f t="shared" ref="AH15:AQ15" si="22">+AK8*AK10/1000</f>
+        <f t="shared" ref="AK15:AQ15" si="22">+AK8*AK10/1000</f>
         <v>9159.3188592821116</v>
       </c>
       <c r="AL15" s="3">
@@ -5611,129 +5650,129 @@
         <v>18868.592412923743</v>
       </c>
     </row>
-    <row r="30" spans="2:243" s="8" customFormat="1">
-      <c r="B30" s="7" t="s">
+    <row r="30" spans="2:243" s="6" customFormat="1">
+      <c r="B30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="6">
         <v>0.27</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="6">
         <v>0.67</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="6">
         <v>0.92</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="5">
         <f t="shared" si="16"/>
         <v>2.2799999999999994</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="6">
         <v>1.07</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="6">
         <v>1.29</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="6">
         <v>1.75</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="5">
         <f t="shared" si="17"/>
         <v>-2.2300000000000004</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="6">
         <v>1.36</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="6">
         <v>0.77</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="6">
         <v>1.1399999999999999</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="6">
         <f>+N29/N31</f>
         <v>0.59300155853655656</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O30" s="6">
         <v>1.05</v>
       </c>
-      <c r="P30" s="8">
+      <c r="P30" s="6">
         <v>1.46</v>
       </c>
-      <c r="Q30" s="8">
+      <c r="Q30" s="6">
         <v>1.46</v>
       </c>
       <c r="R30" s="1">
         <f>+AG30-SUM(O30:Q30)</f>
         <v>1.62</v>
       </c>
-      <c r="S30" s="8">
+      <c r="S30" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Y30" s="8">
+      <c r="Y30" s="6">
         <v>2.9</v>
       </c>
-      <c r="Z30" s="8">
+      <c r="Z30" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AA30" s="8">
+      <c r="AA30" s="6">
         <v>3.77</v>
       </c>
-      <c r="AB30" s="8">
+      <c r="AB30" s="6">
         <v>4.6900000000000004</v>
       </c>
-      <c r="AC30" s="8">
+      <c r="AC30" s="6">
         <v>4.1399999999999997</v>
       </c>
-      <c r="AD30" s="8">
+      <c r="AD30" s="6">
         <v>1.88</v>
       </c>
-      <c r="AE30" s="8">
+      <c r="AE30" s="6">
         <v>5.21</v>
       </c>
-      <c r="AF30" s="8">
+      <c r="AF30" s="6">
         <v>4.57</v>
       </c>
-      <c r="AG30" s="8">
+      <c r="AG30" s="6">
         <v>5.59</v>
       </c>
-      <c r="AH30" s="8">
+      <c r="AH30" s="6">
         <f t="shared" ref="AH30:AN30" si="58">+AH29/AH31</f>
         <v>6.2620770884171755</v>
       </c>
-      <c r="AI30" s="8">
+      <c r="AI30" s="6">
         <f t="shared" si="58"/>
         <v>6.5213462938600042</v>
       </c>
-      <c r="AJ30" s="8">
+      <c r="AJ30" s="6">
         <f t="shared" si="58"/>
         <v>6.7915922830557651</v>
       </c>
-      <c r="AK30" s="8">
+      <c r="AK30" s="6">
         <f t="shared" si="58"/>
         <v>7.0732310400418372</v>
       </c>
-      <c r="AL30" s="8">
+      <c r="AL30" s="6">
         <f t="shared" si="58"/>
         <v>7.3666937103176728</v>
       </c>
-      <c r="AM30" s="8">
+      <c r="AM30" s="6">
         <f t="shared" si="58"/>
         <v>7.6724271354307376</v>
       </c>
-      <c r="AN30" s="8">
+      <c r="AN30" s="6">
         <f t="shared" si="58"/>
         <v>7.9908944059985814</v>
       </c>
-      <c r="AO30" s="8">
+      <c r="AO30" s="6">
         <f t="shared" ref="AO30:AP30" si="59">+AO29/AO31</f>
         <v>8.3225754337920268</v>
       </c>
-      <c r="AP30" s="8">
+      <c r="AP30" s="6">
         <f t="shared" si="59"/>
         <v>8.6679675435253909</v>
       </c>
-      <c r="AQ30" s="8">
+      <c r="AQ30" s="6">
         <f t="shared" ref="AQ30" si="60">+AQ29/AQ31</f>
         <v>9.0275860850211664</v>
       </c>
@@ -6083,10 +6122,10 @@
         <v>4.1463414634146378E-2</v>
       </c>
       <c r="R34" s="4">
-        <f t="shared" si="76"/>
+        <f>+R15/N15-1</f>
         <v>1.0835891767980681</v>
       </c>
-      <c r="S34" s="15">
+      <c r="S34" s="12">
         <f t="shared" si="76"/>
         <v>-2.8571428571428581E-2</v>
       </c>
@@ -6170,49 +6209,49 @@
         <f>+B41</f>
         <v>Account &amp; note Rec.</v>
       </c>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:47">
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
     </row>
     <row r="37" spans="2:47">
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
     </row>
     <row r="38" spans="2:47">
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
     </row>
     <row r="39" spans="2:47" s="3" customFormat="1">
       <c r="B39" s="3" t="s">
@@ -6387,7 +6426,7 @@
       <c r="AT41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AU41" s="13">
+      <c r="AU41" s="11">
         <v>0.06</v>
       </c>
     </row>
@@ -6566,7 +6605,7 @@
       </c>
       <c r="AU45" s="3">
         <f>+Main!H3</f>
-        <v>141.66</v>
+        <v>137.65</v>
       </c>
     </row>
     <row r="46" spans="2:47">
@@ -6606,9 +6645,9 @@
       <c r="AT46" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AU46" s="12">
+      <c r="AU46" s="10">
         <f>+AU44/AU45-1</f>
-        <v>1.7096085370658543E-2</v>
+        <v>4.672598222744262E-2</v>
       </c>
     </row>
     <row r="47" spans="2:47">
@@ -7727,7 +7766,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="Y15 Y8" formulaRange="1"/>
-    <ignoredError sqref="AN24 F29 J15 J29 J27 J22:J23 F15:F27 D28:R28 D15:E27 G16:R21 G24:R26 G22:I23 K22:R23 G27:I27 K27:R27 D30:R34 D29:E29 K29:R29 G15:I15 K15:R15 G29:I29 D35:I35" formula="1"/>
+    <ignoredError sqref="AN24 F29 J15 J29 J27 J22:J23 F15:F27 D28:R28 D15:E27 G16:R21 G24:R26 G22:I23 K22:R23 G27:I27 K27:R27 D30:R33 D29:E29 K29:R29 G15:I15 K15:R15 G29:I29 D35:I35 D34:Q34" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
